--- a/grupos/4ARHV - Estadisticos 2020.xlsx
+++ b/grupos/4ARHV - Estadisticos 2020.xlsx
@@ -3511,6 +3511,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5547,7 +5548,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6243,6 +6245,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4ARHV - Estadisticos 2020.xlsx
+++ b/grupos/4ARHV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="159">
   <si>
     <t>Materia</t>
   </si>
@@ -239,12 +239,18 @@
     <t>BUSTOS</t>
   </si>
   <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
     <t>DEL CARMEN</t>
   </si>
   <si>
     <t>CRISTOBAL</t>
   </si>
   <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
@@ -254,6 +260,9 @@
     <t>CARRILLO</t>
   </si>
   <si>
+    <t>DONJUAN</t>
+  </si>
+  <si>
     <t>ESPARZA</t>
   </si>
   <si>
@@ -278,6 +287,9 @@
     <t>MORALES</t>
   </si>
   <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
     <t>RAMOS</t>
   </si>
   <si>
@@ -326,9 +338,15 @@
     <t>BRUNO</t>
   </si>
   <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>CID</t>
   </si>
   <si>
+    <t>MELCHOR</t>
+  </si>
+  <si>
     <t>FERNANDEZ</t>
   </si>
   <si>
@@ -344,6 +362,9 @@
     <t>AGUILA</t>
   </si>
   <si>
+    <t>CORTES</t>
+  </si>
+  <si>
     <t>SANTOS</t>
   </si>
   <si>
@@ -353,7 +374,7 @@
     <t>TZITZIHUA</t>
   </si>
   <si>
-    <t>CALIHUA</t>
+    <t>VOTTE</t>
   </si>
   <si>
     <t>HERRERA</t>
@@ -365,6 +386,9 @@
     <t>VERGEL</t>
   </si>
   <si>
+    <t>AURORA</t>
+  </si>
+  <si>
     <t>EVELYN AISHA</t>
   </si>
   <si>
@@ -380,6 +404,9 @@
     <t>LUZ DEL CARMEN</t>
   </si>
   <si>
+    <t>JOEL</t>
+  </si>
+  <si>
     <t>NAOMI</t>
   </si>
   <si>
@@ -395,6 +422,9 @@
     <t>ARELY</t>
   </si>
   <si>
+    <t>RAUL ANTONIO</t>
+  </si>
+  <si>
     <t>VALENTIN</t>
   </si>
   <si>
@@ -410,6 +440,9 @@
     <t>JESUS</t>
   </si>
   <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
     <t>PERLA</t>
   </si>
   <si>
@@ -431,6 +464,9 @@
     <t>DIANA LAURA</t>
   </si>
   <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
     <t>ASTRID</t>
   </si>
   <si>
@@ -446,6 +482,9 @@
     <t>MERIELING YAMILETH</t>
   </si>
   <si>
+    <t>SAIRA YAMILET</t>
+  </si>
+  <si>
     <t>ELIZABETH</t>
   </si>
   <si>
@@ -456,45 +495,6 @@
   </si>
   <si>
     <t>PAULINA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>DONJUAN</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>MELCHOR</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>VOTTE</t>
-  </si>
-  <si>
-    <t>AURORA</t>
-  </si>
-  <si>
-    <t>JOEL</t>
-  </si>
-  <si>
-    <t>RAUL ANTONIO</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>SAIRA YAMILET</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -981,7 +981,7 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -1022,7 +1022,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -1040,7 +1040,7 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -1099,16 +1099,16 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>-1</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1158,7 +1158,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>-1</v>
@@ -1217,7 +1217,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1226,7 +1226,7 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1258,7 +1258,7 @@
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -1276,7 +1276,7 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>-1</v>
@@ -1335,16 +1335,16 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1394,7 +1394,7 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -1453,16 +1453,16 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1512,13 +1512,13 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -1553,7 +1553,7 @@
         <v>-1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -1562,7 +1562,7 @@
         <v>-1</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1571,7 +1571,7 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -1618,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -1630,16 +1630,16 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1671,13 +1671,13 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>-1</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>8</v>
@@ -1689,16 +1689,16 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1736,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -1748,16 +1748,16 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1807,16 +1807,16 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K18">
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1866,7 +1866,7 @@
         <v>-1</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K19">
         <v>-1</v>
@@ -1875,7 +1875,7 @@
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1907,7 +1907,7 @@
         <v>-1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -1925,7 +1925,7 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K20">
         <v>-1</v>
@@ -1984,16 +1984,16 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>-1</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2043,7 +2043,7 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>-1</v>
@@ -2052,7 +2052,7 @@
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2102,7 +2102,7 @@
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>-1</v>
@@ -2111,7 +2111,7 @@
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2143,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -2161,7 +2161,7 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -2170,7 +2170,7 @@
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2220,16 +2220,16 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2279,7 +2279,7 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K26">
         <v>-1</v>
@@ -2288,7 +2288,7 @@
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2326,7 +2326,7 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <v>8</v>
@@ -2338,16 +2338,16 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2397,7 +2397,7 @@
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>-1</v>
@@ -2406,7 +2406,7 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2456,7 +2456,7 @@
         <v>-1</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>-1</v>
@@ -2465,7 +2465,7 @@
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2497,7 +2497,7 @@
         <v>-1</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>-1</v>
@@ -2515,7 +2515,7 @@
         <v>-1</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <v>-1</v>
@@ -2556,7 +2556,7 @@
         <v>-1</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>-1</v>
@@ -2574,7 +2574,7 @@
         <v>-1</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K31">
         <v>-1</v>
@@ -2615,7 +2615,7 @@
         <v>-1</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>-1</v>
@@ -2633,7 +2633,7 @@
         <v>-1</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K32">
         <v>-1</v>
@@ -2692,16 +2692,16 @@
         <v>-1</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K33">
         <v>-1</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -2733,7 +2733,7 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -2751,7 +2751,7 @@
         <v>-1</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <v>-1</v>
@@ -2792,7 +2792,7 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -2810,7 +2810,7 @@
         <v>-1</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K35">
         <v>-1</v>
@@ -2819,7 +2819,7 @@
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -2851,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E36">
         <v>-1</v>
@@ -2869,7 +2869,7 @@
         <v>-1</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K36">
         <v>-1</v>
@@ -2910,7 +2910,7 @@
         <v>-1</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -2919,7 +2919,7 @@
         <v>-1</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -2928,7 +2928,7 @@
         <v>-1</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K37">
         <v>-1</v>
@@ -2987,7 +2987,7 @@
         <v>-1</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K38">
         <v>-1</v>
@@ -2996,7 +2996,7 @@
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -3034,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -3046,16 +3046,16 @@
         <v>-1</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K39">
         <v>-1</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -3087,7 +3087,7 @@
         <v>-1</v>
       </c>
       <c r="D40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -3105,7 +3105,7 @@
         <v>-1</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K40">
         <v>-1</v>
@@ -3146,13 +3146,13 @@
         <v>-1</v>
       </c>
       <c r="D41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>-1</v>
       </c>
       <c r="F41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G41">
         <v>8</v>
@@ -3164,13 +3164,13 @@
         <v>-1</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K41">
         <v>-1</v>
       </c>
       <c r="L41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M41">
         <v>-1</v>
@@ -3205,7 +3205,7 @@
         <v>-1</v>
       </c>
       <c r="D42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -3223,7 +3223,7 @@
         <v>-1</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K42">
         <v>-1</v>
@@ -3317,25 +3317,25 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.64</v>
+        <v>41.03</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>74.36</v>
+        <v>58.97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3384,22 +3384,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>56.41</v>
       </c>
       <c r="G4">
+        <v>43.59</v>
+      </c>
+      <c r="H4">
+        <v>6.8</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="I4">
-        <v>17</v>
-      </c>
       <c r="J4">
-        <v>43.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3477,25 +3477,25 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>76.92</v>
+        <v>82.05</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>23.08</v>
+        <v>17.95</v>
       </c>
     </row>
   </sheetData>
@@ -3505,7 +3505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920358</v>
+        <v>19330051920359</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -3557,42 +3557,42 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920358</v>
+        <v>19330051920359</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920358</v>
+        <v>19330051920359</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3603,16 +3603,16 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -3643,50 +3643,50 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920356</v>
+        <v>19330051920358</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920356</v>
+        <v>19330051920358</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -3703,16 +3703,16 @@
         <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3723,190 +3723,190 @@
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920360</v>
+        <v>19330051920356</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920456</v>
+        <v>19330051920356</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920361</v>
+        <v>19330051920356</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920361</v>
+        <v>19330051920360</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920361</v>
+        <v>19330051920360</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920361</v>
+        <v>19330051920360</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920361</v>
+        <v>19330051920360</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920361</v>
+        <v>19330051920360</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920426</v>
+        <v>19330051920456</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -3917,16 +3917,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920366</v>
+        <v>19330051920456</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -3937,36 +3937,36 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920368</v>
+        <v>19330051920456</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920367</v>
+        <v>19330051920456</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -3977,39 +3977,39 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920367</v>
+        <v>19330051920361</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920367</v>
+        <v>19330051920361</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>60</v>
@@ -4017,76 +4017,76 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920367</v>
+        <v>19330051920361</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920367</v>
+        <v>19330051920361</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920367</v>
+        <v>19330051920361</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920435</v>
+        <v>19330051920362</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -4097,36 +4097,36 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920435</v>
+        <v>19330051920362</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920435</v>
+        <v>19330051920362</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -4137,96 +4137,96 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920427</v>
+        <v>19330051920426</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920097</v>
+        <v>19330051920426</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920097</v>
+        <v>19330051920426</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920097</v>
+        <v>19330051920366</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920097</v>
+        <v>19330051920366</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -4237,16 +4237,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920097</v>
+        <v>19330051920366</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -4257,136 +4257,136 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920097</v>
+        <v>19330051920366</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920372</v>
+        <v>19330051920365</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920373</v>
+        <v>19330051920365</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920375</v>
+        <v>19330051920365</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920375</v>
+        <v>19330051920368</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920374</v>
+        <v>19330051920368</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920377</v>
+        <v>19330051920368</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920378</v>
+        <v>19330051920367</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -4417,196 +4417,196 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920381</v>
+        <v>19330051920367</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
         <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920382</v>
+        <v>19330051920367</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920383</v>
+        <v>19330051920367</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920383</v>
+        <v>19330051920367</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920383</v>
+        <v>19330051920435</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920383</v>
+        <v>19330051920435</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920383</v>
+        <v>19330051920435</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920383</v>
+        <v>19330051920435</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920386</v>
+        <v>19330051920435</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920386</v>
+        <v>19330051920371</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -4617,16 +4617,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920386</v>
+        <v>19330051920371</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -4637,30 +4637,30 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920386</v>
+        <v>19330051920371</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920386</v>
+        <v>19330051920427</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
         <v>109</v>
@@ -4669,18 +4669,18 @@
         <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920386</v>
+        <v>19330051920427</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
         <v>109</v>
@@ -4689,7 +4689,7 @@
         <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
         <v>60</v>
@@ -4697,219 +4697,219 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920419</v>
+        <v>19330051920427</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920419</v>
+        <v>19330051920427</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920419</v>
+        <v>18330051920097</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
         <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920419</v>
+        <v>18330051920097</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
         <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920419</v>
+        <v>18330051920097</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
         <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920419</v>
+        <v>18330051920097</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
         <v>136</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920436</v>
+        <v>18330051920097</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920436</v>
+        <v>19330051920372</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920391</v>
+        <v>19330051920372</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
         <v>110</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920391</v>
+        <v>19330051920372</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
         <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920391</v>
+        <v>19330051920373</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
         <v>60</v>
@@ -4917,36 +4917,36 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920393</v>
+        <v>19330051920373</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920393</v>
+        <v>19330051920373</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
@@ -4957,76 +4957,76 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920393</v>
+        <v>19330051920373</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920393</v>
+        <v>19330051920375</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920393</v>
+        <v>19330051920375</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920393</v>
+        <v>19330051920375</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
@@ -5037,36 +5037,36 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920392</v>
+        <v>19330051920375</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920392</v>
+        <v>19330051920374</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -5077,56 +5077,56 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920392</v>
+        <v>19330051920374</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920392</v>
+        <v>19330051920374</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920392</v>
+        <v>19330051920374</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -5137,76 +5137,76 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920394</v>
+        <v>19330051920376</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920396</v>
+        <v>19330051920376</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920396</v>
+        <v>19330051920376</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920396</v>
+        <v>19330051920377</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -5217,16 +5217,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920396</v>
+        <v>19330051920377</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
@@ -5237,19 +5237,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920396</v>
+        <v>19330051920377</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>60</v>
@@ -5257,79 +5257,79 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920369</v>
+        <v>19330051920377</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920369</v>
+        <v>19330051920378</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920369</v>
+        <v>19330051920378</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920369</v>
+        <v>19330051920378</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
         <v>60</v>
@@ -5337,16 +5337,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920398</v>
+        <v>19330051920381</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
@@ -5357,16 +5357,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920398</v>
+        <v>19330051920381</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
@@ -5377,76 +5377,76 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920398</v>
+        <v>19330051920381</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920398</v>
+        <v>19330051920381</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920398</v>
+        <v>19330051920382</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D96" t="s">
         <v>144</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920399</v>
+        <v>19330051920382</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E97" t="s">
         <v>4</v>
@@ -5457,81 +5457,1261 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920399</v>
+        <v>19330051920382</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920399</v>
+        <v>19330051920382</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>19330051920399</v>
+        <v>19330051920383</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
         <v>145</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>19330051920399</v>
+        <v>19330051920383</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D101" t="s">
         <v>145</v>
       </c>
       <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>19330051920383</v>
+      </c>
+      <c r="B102" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>19330051920383</v>
+      </c>
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" t="s">
+        <v>145</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>19330051920383</v>
+      </c>
+      <c r="B104" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>19330051920386</v>
+      </c>
+      <c r="B105" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" t="s">
         <v>7</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>19330051920386</v>
+      </c>
+      <c r="B106" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" t="s">
+        <v>146</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>19330051920386</v>
+      </c>
+      <c r="B107" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>19330051920386</v>
+      </c>
+      <c r="B108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" t="s">
+        <v>146</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>19330051920386</v>
+      </c>
+      <c r="B109" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" t="s">
+        <v>146</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>19330051920419</v>
+      </c>
+      <c r="B110" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" t="s">
+        <v>93</v>
+      </c>
+      <c r="D110" t="s">
+        <v>147</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>19330051920419</v>
+      </c>
+      <c r="B111" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" t="s">
+        <v>147</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>19330051920419</v>
+      </c>
+      <c r="B112" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" t="s">
+        <v>93</v>
+      </c>
+      <c r="D112" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>19330051920419</v>
+      </c>
+      <c r="B113" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D113" t="s">
+        <v>147</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>19330051920419</v>
+      </c>
+      <c r="B114" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" t="s">
+        <v>147</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>19330051920389</v>
+      </c>
+      <c r="B115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>148</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>19330051920389</v>
+      </c>
+      <c r="B116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>148</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>19330051920389</v>
+      </c>
+      <c r="B117" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>19330051920436</v>
+      </c>
+      <c r="B118" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" t="s">
+        <v>110</v>
+      </c>
+      <c r="D118" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>19330051920436</v>
+      </c>
+      <c r="B119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" t="s">
+        <v>110</v>
+      </c>
+      <c r="D119" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>19330051920436</v>
+      </c>
+      <c r="B120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" t="s">
+        <v>110</v>
+      </c>
+      <c r="D120" t="s">
+        <v>149</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>19330051920436</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" t="s">
+        <v>110</v>
+      </c>
+      <c r="D121" t="s">
+        <v>149</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>19330051920436</v>
+      </c>
+      <c r="B122" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122" t="s">
+        <v>110</v>
+      </c>
+      <c r="D122" t="s">
+        <v>149</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>19330051920391</v>
+      </c>
+      <c r="B123" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" t="s">
+        <v>150</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>19330051920391</v>
+      </c>
+      <c r="B124" t="s">
+        <v>91</v>
+      </c>
+      <c r="C124" t="s">
+        <v>117</v>
+      </c>
+      <c r="D124" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>19330051920391</v>
+      </c>
+      <c r="B125" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" t="s">
+        <v>150</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>19330051920391</v>
+      </c>
+      <c r="B126" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>19330051920393</v>
+      </c>
+      <c r="B127" t="s">
+        <v>92</v>
+      </c>
+      <c r="C127" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>19330051920393</v>
+      </c>
+      <c r="B128" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>19330051920393</v>
+      </c>
+      <c r="B129" t="s">
+        <v>92</v>
+      </c>
+      <c r="C129" t="s">
+        <v>77</v>
+      </c>
+      <c r="D129" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>19330051920393</v>
+      </c>
+      <c r="B130" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" t="s">
+        <v>77</v>
+      </c>
+      <c r="D130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>19330051920393</v>
+      </c>
+      <c r="B131" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" t="s">
+        <v>77</v>
+      </c>
+      <c r="D131" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>19330051920392</v>
+      </c>
+      <c r="B132" t="s">
+        <v>93</v>
+      </c>
+      <c r="C132" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132" t="s">
+        <v>152</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>19330051920392</v>
+      </c>
+      <c r="B133" t="s">
+        <v>93</v>
+      </c>
+      <c r="C133" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" t="s">
+        <v>152</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>19330051920392</v>
+      </c>
+      <c r="B134" t="s">
+        <v>93</v>
+      </c>
+      <c r="C134" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134" t="s">
+        <v>152</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>19330051920392</v>
+      </c>
+      <c r="B135" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" t="s">
+        <v>152</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>19330051920392</v>
+      </c>
+      <c r="B136" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" t="s">
+        <v>73</v>
+      </c>
+      <c r="D136" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>19330051920394</v>
+      </c>
+      <c r="B137" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>19330051920394</v>
+      </c>
+      <c r="B138" t="s">
+        <v>94</v>
+      </c>
+      <c r="C138" t="s">
+        <v>103</v>
+      </c>
+      <c r="D138" t="s">
+        <v>153</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>19330051920394</v>
+      </c>
+      <c r="B139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C139" t="s">
+        <v>103</v>
+      </c>
+      <c r="D139" t="s">
+        <v>153</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>19330051920434</v>
+      </c>
+      <c r="B140" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" t="s">
+        <v>154</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>19330051920434</v>
+      </c>
+      <c r="B141" t="s">
+        <v>92</v>
+      </c>
+      <c r="C141" t="s">
+        <v>118</v>
+      </c>
+      <c r="D141" t="s">
+        <v>154</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>19330051920434</v>
+      </c>
+      <c r="B142" t="s">
+        <v>92</v>
+      </c>
+      <c r="C142" t="s">
+        <v>118</v>
+      </c>
+      <c r="D142" t="s">
+        <v>154</v>
+      </c>
+      <c r="E142" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>19330051920434</v>
+      </c>
+      <c r="B143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C143" t="s">
+        <v>118</v>
+      </c>
+      <c r="D143" t="s">
+        <v>154</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>19330051920396</v>
+      </c>
+      <c r="B144" t="s">
+        <v>95</v>
+      </c>
+      <c r="C144" t="s">
+        <v>119</v>
+      </c>
+      <c r="D144" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>19330051920396</v>
+      </c>
+      <c r="B145" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145" t="s">
+        <v>119</v>
+      </c>
+      <c r="D145" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>19330051920396</v>
+      </c>
+      <c r="B146" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" t="s">
+        <v>119</v>
+      </c>
+      <c r="D146" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>19330051920396</v>
+      </c>
+      <c r="B147" t="s">
+        <v>95</v>
+      </c>
+      <c r="C147" t="s">
+        <v>119</v>
+      </c>
+      <c r="D147" t="s">
+        <v>155</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>19330051920396</v>
+      </c>
+      <c r="B148" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" t="s">
+        <v>155</v>
+      </c>
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>19330051920369</v>
+      </c>
+      <c r="B149" t="s">
+        <v>96</v>
+      </c>
+      <c r="C149" t="s">
+        <v>120</v>
+      </c>
+      <c r="D149" t="s">
+        <v>156</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>19330051920369</v>
+      </c>
+      <c r="B150" t="s">
+        <v>96</v>
+      </c>
+      <c r="C150" t="s">
+        <v>120</v>
+      </c>
+      <c r="D150" t="s">
+        <v>156</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>19330051920369</v>
+      </c>
+      <c r="B151" t="s">
+        <v>96</v>
+      </c>
+      <c r="C151" t="s">
+        <v>120</v>
+      </c>
+      <c r="D151" t="s">
+        <v>156</v>
+      </c>
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>19330051920398</v>
+      </c>
+      <c r="B152" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" t="s">
+        <v>88</v>
+      </c>
+      <c r="D152" t="s">
+        <v>157</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>19330051920398</v>
+      </c>
+      <c r="B153" t="s">
+        <v>97</v>
+      </c>
+      <c r="C153" t="s">
+        <v>88</v>
+      </c>
+      <c r="D153" t="s">
+        <v>157</v>
+      </c>
+      <c r="E153" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>19330051920398</v>
+      </c>
+      <c r="B154" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" t="s">
+        <v>88</v>
+      </c>
+      <c r="D154" t="s">
+        <v>157</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>19330051920398</v>
+      </c>
+      <c r="B155" t="s">
+        <v>97</v>
+      </c>
+      <c r="C155" t="s">
+        <v>88</v>
+      </c>
+      <c r="D155" t="s">
+        <v>157</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>19330051920399</v>
+      </c>
+      <c r="B156" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" t="s">
+        <v>121</v>
+      </c>
+      <c r="D156" t="s">
+        <v>158</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>19330051920399</v>
+      </c>
+      <c r="B157" t="s">
+        <v>98</v>
+      </c>
+      <c r="C157" t="s">
+        <v>121</v>
+      </c>
+      <c r="D157" t="s">
+        <v>158</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>19330051920399</v>
+      </c>
+      <c r="B158" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" t="s">
+        <v>121</v>
+      </c>
+      <c r="D158" t="s">
+        <v>158</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>19330051920399</v>
+      </c>
+      <c r="B159" t="s">
+        <v>98</v>
+      </c>
+      <c r="C159" t="s">
+        <v>121</v>
+      </c>
+      <c r="D159" t="s">
+        <v>158</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>19330051920399</v>
+      </c>
+      <c r="B160" t="s">
+        <v>98</v>
+      </c>
+      <c r="C160" t="s">
+        <v>121</v>
+      </c>
+      <c r="D160" t="s">
+        <v>158</v>
+      </c>
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5577,13 +6757,13 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5594,98 +6774,98 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920367</v>
+        <v>18330051920097</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920097</v>
+        <v>19330051920383</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920383</v>
+        <v>19330051920386</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920419</v>
+        <v>19330051920367</v>
       </c>
       <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5693,16 +6873,16 @@
         <v>19330051920393</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5710,16 +6890,16 @@
         <v>19330051920392</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5727,166 +6907,166 @@
         <v>19330051920396</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920398</v>
+        <v>19330051920399</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920399</v>
+        <v>19330051920356</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920356</v>
+        <v>19330051920435</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920369</v>
+        <v>19330051920398</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920435</v>
+        <v>19330051920391</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920391</v>
+        <v>19330051920369</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920375</v>
+        <v>19330051920360</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920436</v>
+        <v>19330051920456</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920360</v>
+        <v>19330051920366</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5894,16 +7074,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920456</v>
+        <v>19330051920427</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5911,16 +7091,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920426</v>
+        <v>19330051920372</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5928,16 +7108,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920366</v>
+        <v>19330051920373</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5945,16 +7125,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920368</v>
+        <v>19330051920375</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5962,16 +7142,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920427</v>
+        <v>19330051920374</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5979,16 +7159,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920372</v>
+        <v>19330051920377</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5996,16 +7176,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920373</v>
+        <v>19330051920381</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -6013,16 +7193,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920374</v>
+        <v>19330051920382</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -6030,16 +7210,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920377</v>
+        <v>19330051920436</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -6047,84 +7227,84 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920378</v>
+        <v>19330051920359</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920381</v>
+        <v>19330051920362</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920382</v>
+        <v>19330051920426</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920394</v>
+        <v>19330051920365</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920359</v>
+        <v>19330051920368</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -6132,16 +7312,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920362</v>
+        <v>19330051920371</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -6149,16 +7329,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920365</v>
+        <v>19330051920376</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6166,16 +7346,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920371</v>
+        <v>19330051920378</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -6183,16 +7363,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920376</v>
+        <v>19330051920389</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -6200,16 +7380,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920389</v>
+        <v>19330051920394</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -6220,13 +7400,13 @@
         <v>19330051920434</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -6239,7 +7419,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6272,420 +7452,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920375</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920375</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920436</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920436</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920360</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920456</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920426</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920366</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920368</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920427</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920372</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920373</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920374</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920377</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920378</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920381</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920382</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920394</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/4ARHV - Estadisticos 2020.xlsx
+++ b/grupos/4ARHV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="159">
   <si>
     <t>Materia</t>
   </si>
@@ -197,18 +197,18 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Camacho Juárez Sergio Eduardo</t>
+  </si>
+  <si>
     <t>Polanco Domínguez Rosa María</t>
   </si>
   <si>
-    <t>Camacho Juárez Sergio Eduardo</t>
+    <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
-    <t>Muñoz Rivadeneyra Salvador</t>
-  </si>
-  <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
@@ -242,259 +242,259 @@
     <t>CALIHUA</t>
   </si>
   <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>ESPARZA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>SUSUNAGA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>VOTTE</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>VERGEL</t>
+  </si>
+  <si>
+    <t>EVELYN AISHA</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>AMYRA NAHOMY</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>LUZ DEL CARMEN</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>OFELIA</t>
+  </si>
+  <si>
+    <t>ZURI SADAY</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>HILARIO</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>DARIANA MONSERRAT</t>
+  </si>
+  <si>
+    <t>MARIAM ABRIL</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>LUIS HUGO</t>
+  </si>
+  <si>
+    <t>DIANA LAURA</t>
+  </si>
+  <si>
+    <t>ASTRID</t>
+  </si>
+  <si>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>ITZEL ISABEL</t>
+  </si>
+  <si>
+    <t>RAMIRO</t>
+  </si>
+  <si>
+    <t>SAIRA YAMILET</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>PAULINA</t>
+  </si>
+  <si>
     <t>DEL CARMEN</t>
   </si>
   <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
     <t>CONTRERAS</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
     <t>DONJUAN</t>
   </si>
   <si>
-    <t>ESPARZA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>QUIAHUA</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>SUSUNAGA</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>CID</t>
-  </si>
-  <si>
     <t>MELCHOR</t>
   </si>
   <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
     <t>CORTES</t>
   </si>
   <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>AQUINO</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>VOTTE</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
-    <t>VERGEL</t>
-  </si>
-  <si>
     <t>AURORA</t>
   </si>
   <si>
-    <t>EVELYN AISHA</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>AMYRA NAHOMY</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>LUZ DEL CARMEN</t>
-  </si>
-  <si>
-    <t>JOEL</t>
-  </si>
-  <si>
     <t>NAOMI</t>
   </si>
   <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>OFELIA</t>
-  </si>
-  <si>
-    <t>ZURI SADAY</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
     <t>RAUL ANTONIO</t>
   </si>
   <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>HILARIO</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>JOSE DANIEL</t>
   </si>
   <si>
-    <t>PERLA</t>
-  </si>
-  <si>
-    <t>DARIANA MONSERRAT</t>
-  </si>
-  <si>
-    <t>MARIAM ABRIL</t>
-  </si>
-  <si>
-    <t>LUCERO</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>LUIS HUGO</t>
-  </si>
-  <si>
-    <t>DIANA LAURA</t>
-  </si>
-  <si>
     <t>GUADALUPE</t>
   </si>
   <si>
-    <t>ASTRID</t>
-  </si>
-  <si>
-    <t>NOE</t>
-  </si>
-  <si>
-    <t>ITZEL ISABEL</t>
-  </si>
-  <si>
-    <t>RAMIRO</t>
-  </si>
-  <si>
     <t>MERIELING YAMILETH</t>
   </si>
   <si>
-    <t>SAIRA YAMILET</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
-  </si>
-  <si>
     <t>JENNIFER</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>PAULINA</t>
   </si>
 </sst>
 </file>
@@ -1093,16 +1093,16 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -1161,13 +1161,13 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1214,7 +1214,7 @@
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -1332,13 +1332,13 @@
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>6</v>
@@ -1447,16 +1447,16 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>8</v>
@@ -1506,7 +1506,7 @@
         <v>6</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1550,7 +1550,7 @@
         <v>-1</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1568,7 +1568,7 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1627,13 +1627,13 @@
         <v>-1</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>7</v>
@@ -1665,7 +1665,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -1674,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1683,16 +1683,16 @@
         <v>8</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -1742,16 +1742,16 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>6</v>
@@ -1801,16 +1801,16 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>9</v>
@@ -1863,7 +1863,7 @@
         <v>-1</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -1963,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>9</v>
@@ -1978,7 +1978,7 @@
         <v>8</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1987,7 +1987,7 @@
         <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>8</v>
@@ -2037,16 +2037,16 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J22">
         <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>-1</v>
@@ -2096,16 +2096,16 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2158,13 +2158,13 @@
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L24">
         <v>-1</v>
@@ -2214,16 +2214,16 @@
         <v>8</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J25">
         <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -2276,13 +2276,13 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J26">
         <v>7</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L26">
         <v>-1</v>
@@ -2335,13 +2335,13 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J27">
         <v>10</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L27">
         <v>8</v>
@@ -2391,16 +2391,16 @@
         <v>8</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J28">
         <v>10</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>-1</v>
@@ -2453,13 +2453,13 @@
         <v>-1</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J29">
         <v>10</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>-1</v>
@@ -2686,16 +2686,16 @@
         <v>8</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J33">
         <v>10</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L33">
         <v>10</v>
@@ -2748,7 +2748,7 @@
         <v>-1</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -2760,7 +2760,7 @@
         <v>-1</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -2807,7 +2807,7 @@
         <v>-1</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J35">
         <v>8</v>
@@ -3040,16 +3040,16 @@
         <v>8</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J39">
         <v>9</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L39">
         <v>6</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -3317,30 +3317,30 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>41.03</v>
+        <v>33.33</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>25.64</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="I2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2">
-        <v>58.97</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -3349,94 +3349,94 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>56.41</v>
+        <v>35.9</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="H3">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>43.59</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>39</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>56.41</v>
+        <v>48.72</v>
       </c>
       <c r="G4">
-        <v>43.59</v>
+        <v>12.82</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>51.28</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>39</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>58.97</v>
+        <v>56.41</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>17.95</v>
       </c>
       <c r="H5">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>41.03</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -3445,25 +3445,25 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>58.97</v>
+      </c>
+      <c r="G6">
+        <v>41.03</v>
+      </c>
+      <c r="H6">
+        <v>7.1</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>69.23</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>30.77</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3477,25 +3477,25 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>82.05</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>17.95</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>17.95</v>
+        <v>35.9</v>
       </c>
     </row>
   </sheetData>
@@ -3505,7 +3505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3537,62 +3537,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920359</v>
+        <v>19330051920358</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920359</v>
+        <v>19330051920358</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920359</v>
+        <v>19330051920358</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3603,16 +3603,16 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3623,76 +3623,76 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920358</v>
+        <v>19330051920356</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920358</v>
+        <v>19330051920356</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920358</v>
+        <v>19330051920356</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3703,16 +3703,16 @@
         <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3723,93 +3723,93 @@
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920356</v>
+        <v>19330051920360</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920356</v>
+        <v>19330051920360</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920356</v>
+        <v>19330051920360</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920360</v>
+        <v>19330051920456</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>60</v>
@@ -3817,19 +3817,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920360</v>
+        <v>19330051920456</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
@@ -3837,56 +3837,56 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920360</v>
+        <v>19330051920456</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920360</v>
+        <v>19330051920361</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920360</v>
+        <v>19330051920361</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -3897,19 +3897,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920456</v>
+        <v>19330051920361</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
         <v>59</v>
@@ -3917,39 +3917,39 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920456</v>
+        <v>19330051920361</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920456</v>
+        <v>19330051920361</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
         <v>60</v>
@@ -3957,99 +3957,99 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920456</v>
+        <v>19330051920362</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920361</v>
+        <v>19330051920366</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920361</v>
+        <v>19330051920366</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920361</v>
+        <v>19330051920368</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920361</v>
+        <v>19330051920367</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
         <v>60</v>
@@ -4057,19 +4057,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920361</v>
+        <v>19330051920367</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>59</v>
@@ -4077,219 +4077,219 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920362</v>
+        <v>19330051920367</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920362</v>
+        <v>19330051920367</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920362</v>
+        <v>19330051920435</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920426</v>
+        <v>19330051920435</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920426</v>
+        <v>19330051920435</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920426</v>
+        <v>19330051920435</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920366</v>
+        <v>19330051920435</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920366</v>
+        <v>19330051920427</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920366</v>
+        <v>19330051920427</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920366</v>
+        <v>19330051920427</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920365</v>
+        <v>18330051920097</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
         <v>60</v>
@@ -4297,159 +4297,159 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920365</v>
+        <v>18330051920097</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920365</v>
+        <v>18330051920097</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920368</v>
+        <v>18330051920097</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920368</v>
+        <v>18330051920097</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920368</v>
+        <v>19330051920372</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920367</v>
+        <v>19330051920373</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920367</v>
+        <v>19330051920375</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920367</v>
+        <v>19330051920375</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
         <v>60</v>
@@ -4457,159 +4457,159 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920367</v>
+        <v>19330051920374</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920367</v>
+        <v>19330051920377</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920435</v>
+        <v>19330051920377</v>
       </c>
       <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
         <v>79</v>
       </c>
-      <c r="C50" t="s">
-        <v>107</v>
-      </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920435</v>
+        <v>19330051920378</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920435</v>
+        <v>19330051920381</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920435</v>
+        <v>19330051920382</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920435</v>
+        <v>19330051920382</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920371</v>
+        <v>19330051920383</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
         <v>60</v>
@@ -4617,239 +4617,239 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920371</v>
+        <v>19330051920383</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920371</v>
+        <v>19330051920383</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920427</v>
+        <v>19330051920383</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920427</v>
+        <v>19330051920383</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920427</v>
+        <v>19330051920386</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920427</v>
+        <v>19330051920386</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>18330051920097</v>
+        <v>19330051920386</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>18330051920097</v>
+        <v>19330051920386</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>18330051920097</v>
+        <v>19330051920386</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>18330051920097</v>
+        <v>19330051920419</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>18330051920097</v>
+        <v>19330051920419</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920372</v>
+        <v>19330051920419</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
         <v>60</v>
@@ -4857,139 +4857,139 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920372</v>
+        <v>19330051920419</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920372</v>
+        <v>19330051920419</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920373</v>
+        <v>19330051920436</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920373</v>
+        <v>19330051920436</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920373</v>
+        <v>19330051920436</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920373</v>
+        <v>19330051920391</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920375</v>
+        <v>19330051920391</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="s">
         <v>59</v>
@@ -4997,19 +4997,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920375</v>
+        <v>19330051920391</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
         <v>60</v>
@@ -5017,99 +5017,99 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920375</v>
+        <v>19330051920393</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920375</v>
+        <v>19330051920393</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920374</v>
+        <v>19330051920393</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920374</v>
+        <v>19330051920393</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920374</v>
+        <v>19330051920393</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
         <v>60</v>
@@ -5117,359 +5117,359 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920374</v>
+        <v>19330051920392</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920376</v>
+        <v>19330051920392</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920376</v>
+        <v>19330051920392</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920376</v>
+        <v>19330051920392</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E84" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920377</v>
+        <v>19330051920392</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D85" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920377</v>
+        <v>19330051920434</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920377</v>
+        <v>19330051920434</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D87" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920377</v>
+        <v>19330051920434</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920378</v>
+        <v>19330051920434</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920378</v>
+        <v>19330051920396</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920378</v>
+        <v>19330051920396</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920381</v>
+        <v>19330051920396</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920381</v>
+        <v>19330051920396</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920381</v>
+        <v>19330051920396</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920381</v>
+        <v>19330051920398</v>
       </c>
       <c r="B95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" t="s">
         <v>85</v>
       </c>
-      <c r="C95" t="s">
-        <v>83</v>
-      </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920382</v>
+        <v>19330051920398</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D96" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920382</v>
+        <v>19330051920398</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920382</v>
+        <v>19330051920398</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>59</v>
@@ -5477,1241 +5477,101 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920382</v>
+        <v>19330051920399</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>19330051920383</v>
+        <v>19330051920399</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>19330051920383</v>
+        <v>19330051920399</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>19330051920383</v>
+        <v>19330051920399</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D102" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>19330051920383</v>
+        <v>19330051920399</v>
       </c>
       <c r="B103" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C103" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920383</v>
-      </c>
-      <c r="B104" t="s">
-        <v>87</v>
-      </c>
-      <c r="C104" t="s">
-        <v>115</v>
-      </c>
-      <c r="D104" t="s">
-        <v>145</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920386</v>
-      </c>
-      <c r="B105" t="s">
-        <v>88</v>
-      </c>
-      <c r="C105" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" t="s">
-        <v>146</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920386</v>
-      </c>
-      <c r="B106" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D106" t="s">
-        <v>146</v>
-      </c>
-      <c r="E106" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920386</v>
-      </c>
-      <c r="B107" t="s">
-        <v>88</v>
-      </c>
-      <c r="C107" t="s">
-        <v>116</v>
-      </c>
-      <c r="D107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920386</v>
-      </c>
-      <c r="B108" t="s">
-        <v>88</v>
-      </c>
-      <c r="C108" t="s">
-        <v>116</v>
-      </c>
-      <c r="D108" t="s">
-        <v>146</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920386</v>
-      </c>
-      <c r="B109" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" t="s">
-        <v>146</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920419</v>
-      </c>
-      <c r="B110" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" t="s">
-        <v>93</v>
-      </c>
-      <c r="D110" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920419</v>
-      </c>
-      <c r="B111" t="s">
-        <v>88</v>
-      </c>
-      <c r="C111" t="s">
-        <v>93</v>
-      </c>
-      <c r="D111" t="s">
-        <v>147</v>
-      </c>
-      <c r="E111" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920419</v>
-      </c>
-      <c r="B112" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" t="s">
-        <v>93</v>
-      </c>
-      <c r="D112" t="s">
-        <v>147</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920419</v>
-      </c>
-      <c r="B113" t="s">
-        <v>88</v>
-      </c>
-      <c r="C113" t="s">
-        <v>93</v>
-      </c>
-      <c r="D113" t="s">
-        <v>147</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920419</v>
-      </c>
-      <c r="B114" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" t="s">
-        <v>93</v>
-      </c>
-      <c r="D114" t="s">
-        <v>147</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920389</v>
-      </c>
-      <c r="B115" t="s">
-        <v>89</v>
-      </c>
-      <c r="C115" t="s">
-        <v>68</v>
-      </c>
-      <c r="D115" t="s">
-        <v>148</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920389</v>
-      </c>
-      <c r="B116" t="s">
-        <v>89</v>
-      </c>
-      <c r="C116" t="s">
-        <v>68</v>
-      </c>
-      <c r="D116" t="s">
-        <v>148</v>
-      </c>
-      <c r="E116" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920389</v>
-      </c>
-      <c r="B117" t="s">
-        <v>89</v>
-      </c>
-      <c r="C117" t="s">
-        <v>68</v>
-      </c>
-      <c r="D117" t="s">
-        <v>148</v>
-      </c>
-      <c r="E117" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920436</v>
-      </c>
-      <c r="B118" t="s">
-        <v>90</v>
-      </c>
-      <c r="C118" t="s">
-        <v>110</v>
-      </c>
-      <c r="D118" t="s">
-        <v>149</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920436</v>
-      </c>
-      <c r="B119" t="s">
-        <v>90</v>
-      </c>
-      <c r="C119" t="s">
-        <v>110</v>
-      </c>
-      <c r="D119" t="s">
-        <v>149</v>
-      </c>
-      <c r="E119" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920436</v>
-      </c>
-      <c r="B120" t="s">
-        <v>90</v>
-      </c>
-      <c r="C120" t="s">
-        <v>110</v>
-      </c>
-      <c r="D120" t="s">
-        <v>149</v>
-      </c>
-      <c r="E120" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920436</v>
-      </c>
-      <c r="B121" t="s">
-        <v>90</v>
-      </c>
-      <c r="C121" t="s">
-        <v>110</v>
-      </c>
-      <c r="D121" t="s">
-        <v>149</v>
-      </c>
-      <c r="E121" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920436</v>
-      </c>
-      <c r="B122" t="s">
-        <v>90</v>
-      </c>
-      <c r="C122" t="s">
-        <v>110</v>
-      </c>
-      <c r="D122" t="s">
-        <v>149</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920391</v>
-      </c>
-      <c r="B123" t="s">
-        <v>91</v>
-      </c>
-      <c r="C123" t="s">
-        <v>117</v>
-      </c>
-      <c r="D123" t="s">
-        <v>150</v>
-      </c>
-      <c r="E123" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920391</v>
-      </c>
-      <c r="B124" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" t="s">
-        <v>117</v>
-      </c>
-      <c r="D124" t="s">
-        <v>150</v>
-      </c>
-      <c r="E124" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920391</v>
-      </c>
-      <c r="B125" t="s">
-        <v>91</v>
-      </c>
-      <c r="C125" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" t="s">
-        <v>150</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920391</v>
-      </c>
-      <c r="B126" t="s">
-        <v>91</v>
-      </c>
-      <c r="C126" t="s">
-        <v>117</v>
-      </c>
-      <c r="D126" t="s">
-        <v>150</v>
-      </c>
-      <c r="E126" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920393</v>
-      </c>
-      <c r="B127" t="s">
-        <v>92</v>
-      </c>
-      <c r="C127" t="s">
-        <v>77</v>
-      </c>
-      <c r="D127" t="s">
-        <v>151</v>
-      </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920393</v>
-      </c>
-      <c r="B128" t="s">
-        <v>92</v>
-      </c>
-      <c r="C128" t="s">
-        <v>77</v>
-      </c>
-      <c r="D128" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920393</v>
-      </c>
-      <c r="B129" t="s">
-        <v>92</v>
-      </c>
-      <c r="C129" t="s">
-        <v>77</v>
-      </c>
-      <c r="D129" t="s">
-        <v>151</v>
-      </c>
-      <c r="E129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920393</v>
-      </c>
-      <c r="B130" t="s">
-        <v>92</v>
-      </c>
-      <c r="C130" t="s">
-        <v>77</v>
-      </c>
-      <c r="D130" t="s">
-        <v>151</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920393</v>
-      </c>
-      <c r="B131" t="s">
-        <v>92</v>
-      </c>
-      <c r="C131" t="s">
-        <v>77</v>
-      </c>
-      <c r="D131" t="s">
-        <v>151</v>
-      </c>
-      <c r="E131" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920392</v>
-      </c>
-      <c r="B132" t="s">
-        <v>93</v>
-      </c>
-      <c r="C132" t="s">
-        <v>73</v>
-      </c>
-      <c r="D132" t="s">
-        <v>152</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920392</v>
-      </c>
-      <c r="B133" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" t="s">
-        <v>73</v>
-      </c>
-      <c r="D133" t="s">
-        <v>152</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920392</v>
-      </c>
-      <c r="B134" t="s">
-        <v>93</v>
-      </c>
-      <c r="C134" t="s">
-        <v>73</v>
-      </c>
-      <c r="D134" t="s">
-        <v>152</v>
-      </c>
-      <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920392</v>
-      </c>
-      <c r="B135" t="s">
-        <v>93</v>
-      </c>
-      <c r="C135" t="s">
-        <v>73</v>
-      </c>
-      <c r="D135" t="s">
-        <v>152</v>
-      </c>
-      <c r="E135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920392</v>
-      </c>
-      <c r="B136" t="s">
-        <v>93</v>
-      </c>
-      <c r="C136" t="s">
-        <v>73</v>
-      </c>
-      <c r="D136" t="s">
-        <v>152</v>
-      </c>
-      <c r="E136" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920394</v>
-      </c>
-      <c r="B137" t="s">
-        <v>94</v>
-      </c>
-      <c r="C137" t="s">
-        <v>103</v>
-      </c>
-      <c r="D137" t="s">
-        <v>153</v>
-      </c>
-      <c r="E137" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920394</v>
-      </c>
-      <c r="B138" t="s">
-        <v>94</v>
-      </c>
-      <c r="C138" t="s">
-        <v>103</v>
-      </c>
-      <c r="D138" t="s">
-        <v>153</v>
-      </c>
-      <c r="E138" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920394</v>
-      </c>
-      <c r="B139" t="s">
-        <v>94</v>
-      </c>
-      <c r="C139" t="s">
-        <v>103</v>
-      </c>
-      <c r="D139" t="s">
-        <v>153</v>
-      </c>
-      <c r="E139" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920434</v>
-      </c>
-      <c r="B140" t="s">
-        <v>92</v>
-      </c>
-      <c r="C140" t="s">
-        <v>118</v>
-      </c>
-      <c r="D140" t="s">
-        <v>154</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920434</v>
-      </c>
-      <c r="B141" t="s">
-        <v>92</v>
-      </c>
-      <c r="C141" t="s">
-        <v>118</v>
-      </c>
-      <c r="D141" t="s">
-        <v>154</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920434</v>
-      </c>
-      <c r="B142" t="s">
-        <v>92</v>
-      </c>
-      <c r="C142" t="s">
-        <v>118</v>
-      </c>
-      <c r="D142" t="s">
-        <v>154</v>
-      </c>
-      <c r="E142" t="s">
-        <v>4</v>
-      </c>
-      <c r="F142" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920434</v>
-      </c>
-      <c r="B143" t="s">
-        <v>92</v>
-      </c>
-      <c r="C143" t="s">
-        <v>118</v>
-      </c>
-      <c r="D143" t="s">
-        <v>154</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920396</v>
-      </c>
-      <c r="B144" t="s">
-        <v>95</v>
-      </c>
-      <c r="C144" t="s">
-        <v>119</v>
-      </c>
-      <c r="D144" t="s">
-        <v>155</v>
-      </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920396</v>
-      </c>
-      <c r="B145" t="s">
-        <v>95</v>
-      </c>
-      <c r="C145" t="s">
-        <v>119</v>
-      </c>
-      <c r="D145" t="s">
-        <v>155</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920396</v>
-      </c>
-      <c r="B146" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" t="s">
-        <v>119</v>
-      </c>
-      <c r="D146" t="s">
-        <v>155</v>
-      </c>
-      <c r="E146" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920396</v>
-      </c>
-      <c r="B147" t="s">
-        <v>95</v>
-      </c>
-      <c r="C147" t="s">
-        <v>119</v>
-      </c>
-      <c r="D147" t="s">
-        <v>155</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920396</v>
-      </c>
-      <c r="B148" t="s">
-        <v>95</v>
-      </c>
-      <c r="C148" t="s">
-        <v>119</v>
-      </c>
-      <c r="D148" t="s">
-        <v>155</v>
-      </c>
-      <c r="E148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920369</v>
-      </c>
-      <c r="B149" t="s">
-        <v>96</v>
-      </c>
-      <c r="C149" t="s">
-        <v>120</v>
-      </c>
-      <c r="D149" t="s">
-        <v>156</v>
-      </c>
-      <c r="E149" t="s">
-        <v>7</v>
-      </c>
-      <c r="F149" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920369</v>
-      </c>
-      <c r="B150" t="s">
-        <v>96</v>
-      </c>
-      <c r="C150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D150" t="s">
-        <v>156</v>
-      </c>
-      <c r="E150" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920369</v>
-      </c>
-      <c r="B151" t="s">
-        <v>96</v>
-      </c>
-      <c r="C151" t="s">
-        <v>120</v>
-      </c>
-      <c r="D151" t="s">
-        <v>156</v>
-      </c>
-      <c r="E151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920398</v>
-      </c>
-      <c r="B152" t="s">
-        <v>97</v>
-      </c>
-      <c r="C152" t="s">
-        <v>88</v>
-      </c>
-      <c r="D152" t="s">
-        <v>157</v>
-      </c>
-      <c r="E152" t="s">
-        <v>4</v>
-      </c>
-      <c r="F152" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920398</v>
-      </c>
-      <c r="B153" t="s">
-        <v>97</v>
-      </c>
-      <c r="C153" t="s">
-        <v>88</v>
-      </c>
-      <c r="D153" t="s">
-        <v>157</v>
-      </c>
-      <c r="E153" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920398</v>
-      </c>
-      <c r="B154" t="s">
-        <v>97</v>
-      </c>
-      <c r="C154" t="s">
-        <v>88</v>
-      </c>
-      <c r="D154" t="s">
-        <v>157</v>
-      </c>
-      <c r="E154" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920398</v>
-      </c>
-      <c r="B155" t="s">
-        <v>97</v>
-      </c>
-      <c r="C155" t="s">
-        <v>88</v>
-      </c>
-      <c r="D155" t="s">
-        <v>157</v>
-      </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920399</v>
-      </c>
-      <c r="B156" t="s">
-        <v>98</v>
-      </c>
-      <c r="C156" t="s">
-        <v>121</v>
-      </c>
-      <c r="D156" t="s">
-        <v>158</v>
-      </c>
-      <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920399</v>
-      </c>
-      <c r="B157" t="s">
-        <v>98</v>
-      </c>
-      <c r="C157" t="s">
-        <v>121</v>
-      </c>
-      <c r="D157" t="s">
-        <v>158</v>
-      </c>
-      <c r="E157" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>19330051920399</v>
-      </c>
-      <c r="B158" t="s">
-        <v>98</v>
-      </c>
-      <c r="C158" t="s">
-        <v>121</v>
-      </c>
-      <c r="D158" t="s">
-        <v>158</v>
-      </c>
-      <c r="E158" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>19330051920399</v>
-      </c>
-      <c r="B159" t="s">
-        <v>98</v>
-      </c>
-      <c r="C159" t="s">
-        <v>121</v>
-      </c>
-      <c r="D159" t="s">
-        <v>158</v>
-      </c>
-      <c r="E159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>19330051920399</v>
-      </c>
-      <c r="B160" t="s">
-        <v>98</v>
-      </c>
-      <c r="C160" t="s">
-        <v>121</v>
-      </c>
-      <c r="D160" t="s">
-        <v>158</v>
-      </c>
-      <c r="E160" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6757,10 +5617,10 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -6768,16 +5628,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920361</v>
+        <v>19330051920356</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -6785,16 +5645,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920097</v>
+        <v>19330051920361</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -6802,16 +5662,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920383</v>
+        <v>19330051920435</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -6819,16 +5679,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920386</v>
+        <v>18330051920097</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -6836,16 +5696,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920419</v>
+        <v>19330051920383</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -6853,322 +5713,322 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920367</v>
+        <v>19330051920386</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
         <v>132</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920393</v>
+        <v>19330051920419</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920392</v>
+        <v>19330051920393</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920396</v>
+        <v>19330051920392</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920399</v>
+        <v>19330051920396</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920356</v>
+        <v>19330051920399</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920435</v>
+        <v>19330051920367</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920398</v>
+        <v>19330051920434</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920391</v>
+        <v>19330051920398</v>
       </c>
       <c r="B16" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920369</v>
+        <v>19330051920360</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920360</v>
+        <v>19330051920456</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920456</v>
+        <v>19330051920427</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920366</v>
+        <v>19330051920436</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920427</v>
+        <v>19330051920391</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
         <v>135</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920372</v>
+        <v>19330051920366</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920373</v>
+        <v>19330051920375</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920375</v>
+        <v>19330051920377</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920374</v>
+        <v>19330051920382</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920377</v>
+        <v>19330051920362</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -7176,16 +6036,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920381</v>
+        <v>19330051920368</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -7193,16 +6053,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920382</v>
+        <v>19330051920372</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -7210,16 +6070,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920436</v>
+        <v>19330051920373</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -7227,67 +6087,67 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920359</v>
+        <v>19330051920374</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920362</v>
+        <v>19330051920378</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
         <v>128</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920426</v>
+        <v>19330051920381</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
         <v>129</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920365</v>
+        <v>19330051920359</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7295,16 +6155,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920368</v>
+        <v>19330051920426</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -7312,16 +6172,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920371</v>
+        <v>19330051920365</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -7329,16 +6189,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920376</v>
+        <v>19330051920371</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -7346,16 +6206,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920378</v>
+        <v>19330051920376</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -7366,13 +6226,13 @@
         <v>19330051920389</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -7383,13 +6243,13 @@
         <v>19330051920394</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -7397,16 +6257,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>19330051920434</v>
+        <v>19330051920369</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -7419,7 +6279,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7449,7 +6309,375 @@
         <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920366</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920375</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920377</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920382</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920382</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920362</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920372</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920373</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920374</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920378</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920381</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920369</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4ARHV - Estadisticos 2020.xlsx
+++ b/grupos/4ARHV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="159">
   <si>
     <t>Materia</t>
   </si>
@@ -203,13 +203,13 @@
     <t>Polanco Domínguez Rosa María</t>
   </si>
   <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>González Nuñez Veronica</t>
   </si>
   <si>
     <t>NC</t>
@@ -1155,7 +1155,7 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1509,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J13">
         <v>7</v>
@@ -2984,7 +2984,7 @@
         <v>-1</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J38">
         <v>7</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -3413,30 +3413,30 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="G5">
-        <v>17.95</v>
+        <v>41.03</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>43.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -3445,30 +3445,30 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>58.97</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G6">
-        <v>41.03</v>
+        <v>17.95</v>
       </c>
       <c r="H6">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -3480,16 +3480,16 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>64.09999999999999</v>
       </c>
       <c r="G7">
-        <v>17.95</v>
+        <v>10.26</v>
       </c>
       <c r="H7">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -3505,7 +3505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3612,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3632,7 +3632,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3692,7 +3692,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3732,7 +3732,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3777,22 +3777,22 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920360</v>
+        <v>19330051920456</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3809,10 +3809,10 @@
         <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3829,7 +3829,7 @@
         <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
@@ -3837,22 +3837,22 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920456</v>
+        <v>19330051920361</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3869,10 +3869,10 @@
         <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3889,10 +3889,10 @@
         <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3909,7 +3909,7 @@
         <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>59</v>
@@ -3929,47 +3929,47 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920361</v>
+        <v>19330051920362</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920362</v>
+        <v>19330051920366</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -3977,19 +3977,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920366</v>
+        <v>19330051920368</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>59</v>
@@ -3997,36 +3997,36 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920366</v>
+        <v>19330051920367</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920368</v>
+        <v>19330051920367</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -4049,10 +4049,10 @@
         <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4069,47 +4069,47 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920367</v>
+        <v>19330051920435</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920367</v>
+        <v>19330051920435</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
         <v>63</v>
@@ -4129,10 +4129,10 @@
         <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4149,10 +4149,10 @@
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4169,24 +4169,24 @@
         <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920435</v>
+        <v>19330051920427</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -4197,16 +4197,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920435</v>
+        <v>19330051920427</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -4229,50 +4229,50 @@
         <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920427</v>
+        <v>18330051920097</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920427</v>
+        <v>18330051920097</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4289,10 +4289,10 @@
         <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4309,10 +4309,10 @@
         <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4329,7 +4329,7 @@
         <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>
@@ -4337,19 +4337,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920097</v>
+        <v>19330051920372</v>
       </c>
       <c r="B42" t="s">
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
         <v>63</v>
@@ -4357,56 +4357,56 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920097</v>
+        <v>19330051920373</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920372</v>
+        <v>19330051920375</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920373</v>
+        <v>19330051920375</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -4417,56 +4417,56 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920375</v>
+        <v>19330051920374</v>
       </c>
       <c r="B46" t="s">
         <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920375</v>
+        <v>19330051920377</v>
       </c>
       <c r="B47" t="s">
         <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920374</v>
+        <v>19330051920377</v>
       </c>
       <c r="B48" t="s">
         <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920377</v>
+        <v>19330051920378</v>
       </c>
       <c r="B49" t="s">
         <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -4497,16 +4497,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920377</v>
+        <v>19330051920381</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -4517,56 +4517,56 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920378</v>
+        <v>19330051920382</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920381</v>
+        <v>19330051920382</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920382</v>
+        <v>19330051920383</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
@@ -4577,16 +4577,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920382</v>
+        <v>19330051920383</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -4609,10 +4609,10 @@
         <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4629,10 +4629,10 @@
         <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4649,50 +4649,50 @@
         <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920383</v>
+        <v>19330051920386</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920383</v>
+        <v>19330051920386</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4709,10 +4709,10 @@
         <v>132</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4729,10 +4729,10 @@
         <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4749,7 +4749,7 @@
         <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
         <v>59</v>
@@ -4757,42 +4757,42 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B63" t="s">
         <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B64" t="s">
         <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4809,10 +4809,10 @@
         <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4829,10 +4829,10 @@
         <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4849,24 +4849,24 @@
         <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920419</v>
+        <v>19330051920436</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
@@ -4877,16 +4877,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920419</v>
+        <v>19330051920436</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -4909,24 +4909,24 @@
         <v>134</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920436</v>
+        <v>19330051920391</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -4937,22 +4937,22 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920436</v>
+        <v>19330051920391</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4969,24 +4969,24 @@
         <v>135</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920391</v>
+        <v>19330051920393</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
@@ -4997,22 +4997,22 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920391</v>
+        <v>19330051920393</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5029,7 +5029,7 @@
         <v>136</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>59</v>
@@ -5049,10 +5049,10 @@
         <v>136</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5069,50 +5069,50 @@
         <v>136</v>
       </c>
       <c r="E78" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920393</v>
+        <v>19330051920392</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920393</v>
+        <v>19330051920392</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5129,10 +5129,10 @@
         <v>137</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5149,10 +5149,10 @@
         <v>137</v>
       </c>
       <c r="E82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5169,50 +5169,50 @@
         <v>137</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920392</v>
+        <v>19330051920434</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920392</v>
+        <v>19330051920434</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5229,47 +5229,47 @@
         <v>138</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920434</v>
+        <v>19330051920396</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920434</v>
+        <v>19330051920396</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D88" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F88" t="s">
         <v>59</v>
@@ -5277,22 +5277,22 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920434</v>
+        <v>19330051920396</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5309,10 +5309,10 @@
         <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5329,47 +5329,47 @@
         <v>139</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920396</v>
+        <v>19330051920398</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920396</v>
+        <v>19330051920398</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E93" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
         <v>59</v>
@@ -5377,22 +5377,22 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920396</v>
+        <v>19330051920398</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5409,67 +5409,67 @@
         <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920398</v>
+        <v>19330051920399</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920398</v>
+        <v>19330051920399</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C97" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920398</v>
+        <v>19330051920399</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F98" t="s">
         <v>59</v>
@@ -5489,10 +5489,10 @@
         <v>141</v>
       </c>
       <c r="E99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5509,69 +5509,9 @@
         <v>141</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920399</v>
-      </c>
-      <c r="B101" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" t="s">
-        <v>111</v>
-      </c>
-      <c r="D101" t="s">
-        <v>141</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920399</v>
-      </c>
-      <c r="B102" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" t="s">
-        <v>111</v>
-      </c>
-      <c r="D102" t="s">
-        <v>141</v>
-      </c>
-      <c r="E102" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920399</v>
-      </c>
-      <c r="B103" t="s">
-        <v>92</v>
-      </c>
-      <c r="C103" t="s">
-        <v>111</v>
-      </c>
-      <c r="D103" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5832,16 +5772,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920434</v>
+        <v>19330051920398</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -5849,33 +5789,33 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920398</v>
+        <v>19330051920456</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920360</v>
+        <v>19330051920427</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -5883,16 +5823,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920456</v>
+        <v>19330051920436</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -5900,16 +5840,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920427</v>
+        <v>19330051920391</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -5917,16 +5857,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920436</v>
+        <v>19330051920434</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -5934,33 +5874,33 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920391</v>
+        <v>19330051920360</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920366</v>
+        <v>19330051920375</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -5968,16 +5908,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920375</v>
+        <v>19330051920377</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -5985,16 +5925,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920377</v>
+        <v>19330051920382</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -6002,33 +5942,33 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920382</v>
+        <v>19330051920362</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920362</v>
+        <v>19330051920366</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -6279,7 +6219,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6314,22 +6254,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920366</v>
+        <v>19330051920375</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -6337,22 +6277,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920366</v>
+        <v>19330051920375</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -6360,16 +6300,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920375</v>
+        <v>19330051920377</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -6383,16 +6323,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920375</v>
+        <v>19330051920377</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -6406,16 +6346,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920377</v>
+        <v>19330051920382</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -6429,16 +6369,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920377</v>
+        <v>19330051920382</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -6452,16 +6392,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920382</v>
+        <v>19330051920362</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -6475,22 +6415,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920382</v>
+        <v>19330051920366</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -6498,16 +6438,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920362</v>
+        <v>19330051920368</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -6521,22 +6461,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920368</v>
+        <v>19330051920372</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -6544,22 +6484,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920372</v>
+        <v>19330051920373</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -6567,16 +6507,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920373</v>
+        <v>19330051920374</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -6590,22 +6530,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920374</v>
+        <v>19330051920378</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -6613,22 +6553,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920378</v>
+        <v>19330051920381</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -6636,47 +6576,24 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920381</v>
+        <v>19330051920369</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920369</v>
-      </c>
-      <c r="B17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17">
         <v>5</v>
       </c>
     </row>

--- a/grupos/4ARHV - Estadisticos 2020.xlsx
+++ b/grupos/4ARHV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="159">
   <si>
     <t>Materia</t>
   </si>
@@ -323,25 +323,25 @@
     <t>FERNANDEZ</t>
   </si>
   <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
     <t>PEREZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>AQUINO</t>
   </si>
   <si>
     <t>TZITZIHUA</t>
@@ -1019,7 +1019,7 @@
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1037,7 +1037,7 @@
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -1580,7 +1580,7 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1981,7 +1981,7 @@
         <v>9</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -2907,7 +2907,7 @@
         <v>-1</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3143,7 +3143,7 @@
         <v>-1</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -3161,7 +3161,7 @@
         <v>-1</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J41">
         <v>5</v>
@@ -3202,7 +3202,7 @@
         <v>-1</v>
       </c>
       <c r="C42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -3220,7 +3220,7 @@
         <v>-1</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -3232,7 +3232,7 @@
         <v>-1</v>
       </c>
       <c r="M42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N42">
         <v>-1</v>
@@ -3445,25 +3445,25 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>64.09999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="G6">
-        <v>17.95</v>
+        <v>12.82</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="I6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>35.9</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3477,25 +3477,25 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>64.09999999999999</v>
+        <v>74.36</v>
       </c>
       <c r="G7">
         <v>10.26</v>
       </c>
       <c r="H7">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="I7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>35.9</v>
+        <v>25.64</v>
       </c>
     </row>
   </sheetData>
@@ -3505,7 +3505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3617,22 +3617,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920358</v>
+        <v>19330051920356</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3649,7 +3649,7 @@
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -3669,10 +3669,10 @@
         <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3689,10 +3689,10 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3709,30 +3709,30 @@
         <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920356</v>
+        <v>19330051920360</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3749,30 +3749,30 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920360</v>
+        <v>19330051920456</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3789,10 +3789,10 @@
         <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3809,7 +3809,7 @@
         <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920456</v>
+        <v>19330051920361</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3849,10 +3849,10 @@
         <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3869,10 +3869,10 @@
         <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3889,7 +3889,7 @@
         <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>59</v>
@@ -3909,47 +3909,47 @@
         <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920361</v>
+        <v>19330051920362</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920362</v>
+        <v>19330051920366</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -3957,19 +3957,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920366</v>
+        <v>19330051920368</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -3977,22 +3977,22 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920368</v>
+        <v>19330051920367</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4009,10 +4009,10 @@
         <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4029,7 +4029,7 @@
         <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
@@ -4037,42 +4037,42 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920367</v>
+        <v>19330051920435</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920367</v>
+        <v>19330051920435</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4089,10 +4089,10 @@
         <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4109,10 +4109,10 @@
         <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4129,24 +4129,24 @@
         <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920435</v>
+        <v>19330051920427</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920435</v>
+        <v>19330051920427</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -4189,50 +4189,50 @@
         <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920427</v>
+        <v>18330051920097</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920427</v>
+        <v>18330051920097</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4249,10 +4249,10 @@
         <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4269,10 +4269,10 @@
         <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4289,7 +4289,7 @@
         <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>59</v>
@@ -4297,36 +4297,36 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920097</v>
+        <v>19330051920373</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920097</v>
+        <v>19330051920375</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -4337,36 +4337,36 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920372</v>
+        <v>19330051920375</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920373</v>
+        <v>19330051920374</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -4377,16 +4377,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920375</v>
+        <v>19330051920377</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920375</v>
+        <v>19330051920377</v>
       </c>
       <c r="B45" t="s">
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -4417,56 +4417,56 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920374</v>
+        <v>19330051920378</v>
       </c>
       <c r="B46" t="s">
         <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920377</v>
+        <v>19330051920381</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920377</v>
+        <v>19330051920382</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920378</v>
+        <v>19330051920382</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -4497,16 +4497,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920381</v>
+        <v>19330051920383</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -4517,39 +4517,39 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920382</v>
+        <v>19330051920383</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
         <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920382</v>
+        <v>19330051920383</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
         <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
         <v>59</v>
@@ -4563,16 +4563,16 @@
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
         <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4583,76 +4583,76 @@
         <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
         <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920383</v>
+        <v>19330051920386</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920383</v>
+        <v>19330051920386</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
         <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920383</v>
+        <v>19330051920386</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
         <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4663,16 +4663,16 @@
         <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
         <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4683,76 +4683,76 @@
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
         <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B60" t="s">
         <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B61" t="s">
         <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B62" t="s">
         <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4769,10 +4769,10 @@
         <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4789,47 +4789,47 @@
         <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920419</v>
+        <v>19330051920436</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920419</v>
+        <v>19330051920436</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>59</v>
@@ -4837,39 +4837,39 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920419</v>
+        <v>19330051920436</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920436</v>
+        <v>19330051920391</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>59</v>
@@ -4877,19 +4877,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920436</v>
+        <v>19330051920391</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
         <v>59</v>
@@ -4897,16 +4897,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920436</v>
+        <v>19330051920391</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -4917,19 +4917,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920391</v>
+        <v>19330051920393</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
         <v>59</v>
@@ -4937,42 +4937,42 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920391</v>
+        <v>19330051920393</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920391</v>
+        <v>19330051920393</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4989,10 +4989,10 @@
         <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5009,70 +5009,70 @@
         <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920393</v>
+        <v>19330051920392</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920393</v>
+        <v>19330051920392</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920393</v>
+        <v>19330051920392</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5089,10 +5089,10 @@
         <v>137</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5109,107 +5109,107 @@
         <v>137</v>
       </c>
       <c r="E80" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920392</v>
+        <v>19330051920434</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920392</v>
+        <v>19330051920434</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920392</v>
+        <v>19330051920434</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920434</v>
+        <v>19330051920396</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D84" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920434</v>
+        <v>19330051920396</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D85" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
         <v>59</v>
@@ -5217,22 +5217,22 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920434</v>
+        <v>19330051920396</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5249,10 +5249,10 @@
         <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5269,107 +5269,107 @@
         <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920396</v>
+        <v>19330051920398</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920396</v>
+        <v>19330051920398</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920396</v>
+        <v>19330051920398</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920398</v>
+        <v>19330051920399</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920398</v>
+        <v>19330051920399</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>59</v>
@@ -5377,141 +5377,21 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920398</v>
+        <v>19330051920399</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920398</v>
-      </c>
-      <c r="B95" t="s">
-        <v>91</v>
-      </c>
-      <c r="C95" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" t="s">
-        <v>140</v>
-      </c>
-      <c r="E95" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920399</v>
-      </c>
-      <c r="B96" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" t="s">
-        <v>111</v>
-      </c>
-      <c r="D96" t="s">
-        <v>141</v>
-      </c>
-      <c r="E96" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920399</v>
-      </c>
-      <c r="B97" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" t="s">
-        <v>141</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920399</v>
-      </c>
-      <c r="B98" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" t="s">
-        <v>141</v>
-      </c>
-      <c r="E98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920399</v>
-      </c>
-      <c r="B99" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" t="s">
-        <v>141</v>
-      </c>
-      <c r="E99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920399</v>
-      </c>
-      <c r="B100" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100" t="s">
-        <v>141</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5551,16 +5431,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920358</v>
+        <v>19330051920356</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -5568,16 +5448,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920356</v>
+        <v>19330051920361</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5585,16 +5465,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920361</v>
+        <v>19330051920435</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -5602,16 +5482,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920435</v>
+        <v>18330051920097</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -5619,16 +5499,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920097</v>
+        <v>19330051920383</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -5636,16 +5516,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920383</v>
+        <v>19330051920386</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -5653,16 +5533,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -5670,16 +5550,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920419</v>
+        <v>19330051920393</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -5687,16 +5567,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920393</v>
+        <v>19330051920392</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -5704,16 +5584,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920392</v>
+        <v>19330051920396</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -5721,36 +5601,36 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920396</v>
+        <v>19330051920358</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920399</v>
+        <v>19330051920456</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5767,38 +5647,38 @@
         <v>120</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920398</v>
+        <v>19330051920427</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920456</v>
+        <v>19330051920436</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -5806,16 +5686,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920427</v>
+        <v>19330051920391</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -5823,16 +5703,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920436</v>
+        <v>19330051920434</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -5840,16 +5720,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920391</v>
+        <v>19330051920398</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -5857,16 +5737,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920434</v>
+        <v>19330051920399</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -5897,7 +5777,7 @@
         <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
         <v>125</v>
@@ -5931,7 +5811,7 @@
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
         <v>130</v>
@@ -5993,16 +5873,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920372</v>
+        <v>19330051920373</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -6010,16 +5890,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920373</v>
+        <v>19330051920374</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -6027,16 +5907,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920374</v>
+        <v>19330051920378</v>
       </c>
       <c r="B30" t="s">
         <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -6044,16 +5924,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920378</v>
+        <v>19330051920381</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -6061,33 +5941,33 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920381</v>
+        <v>19330051920359</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920359</v>
+        <v>19330051920426</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -6095,16 +5975,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920426</v>
+        <v>19330051920365</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -6112,16 +5992,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920365</v>
+        <v>19330051920371</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -6129,16 +6009,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920371</v>
+        <v>19330051920372</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6219,7 +6099,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6260,7 +6140,7 @@
         <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -6283,7 +6163,7 @@
         <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>125</v>
@@ -6352,7 +6232,7 @@
         <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>130</v>
@@ -6375,7 +6255,7 @@
         <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
         <v>130</v>
@@ -6461,22 +6341,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920372</v>
+        <v>19330051920373</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -6484,16 +6364,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920373</v>
+        <v>19330051920374</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -6507,22 +6387,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920374</v>
+        <v>19330051920378</v>
       </c>
       <c r="B13" t="s">
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -6530,22 +6410,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920378</v>
+        <v>19330051920381</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -6553,47 +6433,24 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920381</v>
+        <v>19330051920369</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920369</v>
-      </c>
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16">
         <v>5</v>
       </c>
     </row>
